--- a/Results/analysis.xlsx
+++ b/Results/analysis.xlsx
@@ -11,13 +11,15 @@
     <sheet name="sector_residual_at_nz" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="fuel_at_nz" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="subsector_residual_at_nz" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="scenarios_vs_standards" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="explanatory_vars" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="scenarios_vs_standards" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="recalcd_vs_native_net_emissions" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -808,6 +810,102 @@
     <t xml:space="preserve">-56 [-60 to -47]</t>
   </si>
   <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_category_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0_2 Diagnostic around an immediate action case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 [14-19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2: Immediate global action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 [14-26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2a: Immediate global action without transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 [12-21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2c: Other policies + Immediate global action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8 [6.8-6.8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3b: NDC + Delayed global action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 [15-18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project_study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luderer 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 [11-17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soergel 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 [7.3-15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strefler 2021b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 [7.4-19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">van Vuuren 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ssp_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 [10-22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 [13-21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology_category_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0: Standard technology assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1: Non-standard technology assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 [6.9-21]</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1</t>
   </si>
   <si>
@@ -860,6 +958,522 @@
   </si>
   <si>
     <t xml:space="preserve">91 [75-96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 [76-92]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78 [68-81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 [67-81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalculated_net_emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">native_net_emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.0|EN_INDCi2030_800f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.0|EN_NPi2020_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.0|EN_NPi2020_1000f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.0|EN_NPi2020_600f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.0|EN_NPi2020_800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.0|EN_NPi2020_800f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_19I_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_19I_D_LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_19I_LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_19I_LIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_19I_LIRE_LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_19I_RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_19I_RE_LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_26I_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_26I_LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_26I_LIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP1_SPA1_26I_RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA0_26I_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA1_19I_D_LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA1_19I_LIRE_LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA1_19I_RE_LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA2_19I_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA2_19I_LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA2_19I_LIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA2_19I_RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA2_26I_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA2_26I_LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA2_26I_LIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE 3.2|SSP2_SPA2_26I_RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_1000_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_1000_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_1000_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_1000f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_1000f_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_1200_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_1200_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_600f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_600f_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_700f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_700f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_700f_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_700f_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_800f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_800f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_800f_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_800f_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_900f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_900f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_900f_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_900f_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_950_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_950_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_950f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_INDCi2030_950f_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000_DR10p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000_DR1p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000_DR2p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000_DR3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000_DR4p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000f_DR1p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000f_DR2p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000f_DR3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1000f_DR4p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_1200_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_200f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_300f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_400f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_450f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_500f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600_DR10p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600_DR1p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600_DR2p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600_DR3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600_DR4p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600f_DR10p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600f_DR1p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600f_DR2p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600f_DR3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_600f_DR4p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_700_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_700f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_700f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_800_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_800f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_800f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_900_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_900f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGEix-GLOBIOM_1.1|EN_NPi2020_900f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|CEMICS_SSP1-1p5C-fullCDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|CEMICS_SSP1-1p5C-minCDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|CEMICS_SSP2-1p5C-fullCDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|CEMICS_SSP2-1p5C-minCDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|CEMICS_SSP2-2C-fullCDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|CEMICS_SSP2-2C-minCDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1000_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1000_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1000_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1000f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1000f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1000f_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1000f_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_1200f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_300f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_400f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_500f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_600_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_600_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_600f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_600f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_600f_COV_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_600f_NDCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_700f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_800f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_INDCi2030_900f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_1000_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_1000f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_1000f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_1200f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_200f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_300f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_400f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_500f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_600_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_600f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_600f_COV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_700f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_800f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|EN_NPi2020_900f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|SusDev_SDP-PkBudg1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|SusDev_SSP1-PkBudg900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.2|SusDev_SSP2-PkBudg900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.3|DeepElec_SSP2_ HighRE_Budg1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.3|DeepElec_SSP2_ HighRE_Budg1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.3|DeepElec_SSP2_ HighRE_Budg900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.3|DeepElec_SSP2_def_Budg1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.3|DeepElec_SSP2_def_Budg1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIND-MAgPIE 2.1-4.3|DeepElec_SSP2_def_Budg900</t>
   </si>
 </sst>
 </file>
@@ -2239,16 +2853,300 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>264</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120</v>
+      </c>
+      <c r="E7" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" t="n">
+        <v>142</v>
+      </c>
+      <c r="E13" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="n">
+        <v>119</v>
+      </c>
+      <c r="E16" t="n">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="2">
@@ -2256,55 +3154,2905 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16345.3700808488</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16161.83984375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>183.530237098819</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17537.1938388141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17372.30078125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>164.893057564132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24847.9092222115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24631.83984375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>216.069378461525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16561.9630446556</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16389.529296875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>172.433747780604</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13110.3851747391</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12950.16015625</v>
+      </c>
+      <c r="E6" t="n">
+        <v>160.225018489087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17696.0437253799</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17522.890625</v>
+      </c>
+      <c r="E7" t="n">
+        <v>173.153100379932</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8752.9414712263</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8561.91015625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>191.031314976304</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5756.81780952803</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5430.83984375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>325.977965778025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5231.97427923748</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5068.408203125</v>
+      </c>
+      <c r="E10" t="n">
+        <v>163.566076112478</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4900.48657448888</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4706.68603515625</v>
+      </c>
+      <c r="E11" t="n">
+        <v>193.800539332627</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C12" t="n">
+        <v>75.1235815950996</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-245.735992431641</v>
+      </c>
+      <c r="E12" t="n">
+        <v>320.85957402674</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9428.85720506115</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9227.7451171875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>201.112087873649</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4828.22250150142</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4502.09912109375</v>
+      </c>
+      <c r="E14" t="n">
+        <v>326.123380407667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21334.6036528758</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21099.01953125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>235.584121625816</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19484.6067979798</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19271.66015625</v>
+      </c>
+      <c r="E16" t="n">
+        <v>212.946641729835</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23242.3274512216</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22992.76953125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>249.557919971608</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20001.7123493457</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19763.630859375</v>
+      </c>
+      <c r="E18" t="n">
+        <v>238.081489970711</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20771.4296428872</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20506.33984375</v>
+      </c>
+      <c r="E19" t="n">
+        <v>265.089799137204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9658.18524329884</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9303.49609375</v>
+      </c>
+      <c r="E20" t="n">
+        <v>354.689149548843</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3464.09326880248</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3156.73388671875</v>
+      </c>
+      <c r="E21" t="n">
+        <v>307.359382083728</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8216.32243597251</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7871.97607421875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>344.346361753764</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9178.07500331333</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8976.1904296875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>201.884573625828</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4808.3442750936</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4669.2529296875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>139.091345406096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5773.95095430538</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5597.0419921875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>176.908962117884</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6164.98487739759</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5966.9140625</v>
+      </c>
+      <c r="E26" t="n">
+        <v>198.070814897585</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24857.381331178</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24586.33984375</v>
+      </c>
+      <c r="E27" t="n">
+        <v>271.041487427956</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23336.6964289686</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23107.390625</v>
+      </c>
+      <c r="E28" t="n">
+        <v>229.305803968571</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C29" t="n">
+        <v>23466.8712902523</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23230.609375</v>
+      </c>
+      <c r="E29" t="n">
+        <v>236.261915252315</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22231.4006380467</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21962.23046875</v>
+      </c>
+      <c r="E30" t="n">
+        <v>269.170169296718</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16084.2705942191</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15958.6384563349</v>
+      </c>
+      <c r="E31" t="n">
+        <v>125.632137884137</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="n">
+        <v>17767.8404946655</v>
+      </c>
+      <c r="D32" t="n">
+        <v>17635.2468197919</v>
+      </c>
+      <c r="E32" t="n">
+        <v>132.593674873584</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="n">
+        <v>18511.7654410846</v>
+      </c>
+      <c r="D33" t="n">
+        <v>18375.9148397478</v>
+      </c>
+      <c r="E33" t="n">
+        <v>135.850601336755</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16423.1439600424</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16297.9136505214</v>
+      </c>
+      <c r="E34" t="n">
+        <v>125.230309520939</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="n">
+        <v>24283.6553681423</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24118.1033398483</v>
+      </c>
+      <c r="E35" t="n">
+        <v>165.552028293983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>354</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="n">
+        <v>24816.9373001029</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24648.8920662104</v>
+      </c>
+      <c r="E36" t="n">
+        <v>168.045233892455</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
+        <v>24373.3608399301</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24208.9938370006</v>
+      </c>
+      <c r="E37" t="n">
+        <v>164.367002929484</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>356</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C38" t="n">
+        <v>24959.3123702661</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24791.211893449</v>
+      </c>
+      <c r="E38" t="n">
+        <v>168.100476817061</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>357</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C39" t="n">
+        <v>15571.1862711257</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15451.4109295896</v>
+      </c>
+      <c r="E39" t="n">
+        <v>119.775341536075</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>358</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C40" t="n">
+        <v>15779.0860703665</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15659.1939127669</v>
+      </c>
+      <c r="E40" t="n">
+        <v>119.892157599606</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>359</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C41" t="n">
+        <v>17280.155001167</v>
+      </c>
+      <c r="D41" t="n">
+        <v>17147.1128676561</v>
+      </c>
+      <c r="E41" t="n">
+        <v>133.04213351092</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17693.5776075092</v>
+      </c>
+      <c r="D42" t="n">
+        <v>17563.2649864877</v>
+      </c>
+      <c r="E42" t="n">
+        <v>130.312621021498</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18009.9241860364</v>
+      </c>
+      <c r="D43" t="n">
+        <v>17879.15539549</v>
+      </c>
+      <c r="E43" t="n">
+        <v>130.768790546343</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>362</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C44" t="n">
+        <v>17484.3733320604</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17350.113282131</v>
+      </c>
+      <c r="E44" t="n">
+        <v>134.260049929369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C45" t="n">
+        <v>19261.0822542506</v>
+      </c>
+      <c r="D45" t="n">
+        <v>19118.8271777396</v>
+      </c>
+      <c r="E45" t="n">
+        <v>142.255076511003</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19723.903154837</v>
+      </c>
+      <c r="D46" t="n">
+        <v>19577.1464069977</v>
+      </c>
+      <c r="E46" t="n">
+        <v>146.756747839307</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>365</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C47" t="n">
+        <v>20108.6688324312</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19954.0369954122</v>
+      </c>
+      <c r="E47" t="n">
+        <v>154.631837018911</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C48" t="n">
+        <v>19439.691949518</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19297.3324290218</v>
+      </c>
+      <c r="E48" t="n">
+        <v>142.359520496178</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C49" t="n">
+        <v>21351.5129572458</v>
+      </c>
+      <c r="D49" t="n">
+        <v>21189.5129056821</v>
+      </c>
+      <c r="E49" t="n">
+        <v>162.000051563711</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C50" t="n">
+        <v>21720.4309325404</v>
+      </c>
+      <c r="D50" t="n">
+        <v>21562.8146825733</v>
+      </c>
+      <c r="E50" t="n">
+        <v>157.616249967024</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>369</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22263.3284975599</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22103.6544029748</v>
+      </c>
+      <c r="E51" t="n">
+        <v>159.674094585174</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C52" t="n">
+        <v>21445.8572412649</v>
+      </c>
+      <c r="D52" t="n">
+        <v>21284.1758816087</v>
+      </c>
+      <c r="E52" t="n">
+        <v>161.681359656257</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15729.0234756879</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15610.8186127738</v>
+      </c>
+      <c r="E53" t="n">
+        <v>118.204862914115</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C54" t="n">
+        <v>16521.8266606197</v>
+      </c>
+      <c r="D54" t="n">
+        <v>16396.2742087324</v>
+      </c>
+      <c r="E54" t="n">
+        <v>125.552451887335</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>373</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C55" t="n">
+        <v>23167.9748494586</v>
+      </c>
+      <c r="D55" t="n">
+        <v>23005.2456778987</v>
+      </c>
+      <c r="E55" t="n">
+        <v>162.729171559851</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C56" t="n">
+        <v>23638.1633835519</v>
+      </c>
+      <c r="D56" t="n">
+        <v>23474.6463622865</v>
+      </c>
+      <c r="E56" t="n">
+        <v>163.517021265485</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20815.1674528145</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20665.3357999997</v>
+      </c>
+      <c r="E57" t="n">
+        <v>149.831652814788</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21737.0355375789</v>
+      </c>
+      <c r="D58" t="n">
+        <v>21590.9876283292</v>
+      </c>
+      <c r="E58" t="n">
+        <v>146.047909249704</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>377</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C59" t="n">
+        <v>18401.8697579518</v>
+      </c>
+      <c r="D59" t="n">
+        <v>18269.63809448</v>
+      </c>
+      <c r="E59" t="n">
+        <v>132.231663471786</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19647.8173001311</v>
+      </c>
+      <c r="D60" t="n">
+        <v>19498.6664359996</v>
+      </c>
+      <c r="E60" t="n">
+        <v>149.150864131494</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>379</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C61" t="n">
+        <v>20986.2889596448</v>
+      </c>
+      <c r="D61" t="n">
+        <v>20835.8726100504</v>
+      </c>
+      <c r="E61" t="n">
+        <v>150.416349594365</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>380</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C62" t="n">
+        <v>21139.4797393248</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20988.2064436556</v>
+      </c>
+      <c r="E62" t="n">
+        <v>151.273295669223</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20954.3804664311</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20803.0937044158</v>
+      </c>
+      <c r="E63" t="n">
+        <v>151.28676201529</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25842.5849714076</v>
+      </c>
+      <c r="D64" t="n">
+        <v>25680.6246893419</v>
+      </c>
+      <c r="E64" t="n">
+        <v>161.960282065702</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25972.7576631198</v>
+      </c>
+      <c r="D65" t="n">
+        <v>25815.793963511</v>
+      </c>
+      <c r="E65" t="n">
+        <v>156.963699608852</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19653.1485875537</v>
+      </c>
+      <c r="D66" t="n">
+        <v>19504.1909737893</v>
+      </c>
+      <c r="E66" t="n">
+        <v>148.957613764418</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C67" t="n">
+        <v>21741.349337751</v>
+      </c>
+      <c r="D67" t="n">
+        <v>21587.9769301498</v>
+      </c>
+      <c r="E67" t="n">
+        <v>153.372407601222</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>386</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23275.2069844828</v>
+      </c>
+      <c r="D68" t="n">
+        <v>23117.9569803063</v>
+      </c>
+      <c r="E68" t="n">
+        <v>157.25000417644</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C69" t="n">
+        <v>24547.7201448929</v>
+      </c>
+      <c r="D69" t="n">
+        <v>24387.5340716108</v>
+      </c>
+      <c r="E69" t="n">
+        <v>160.186073282064</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>388</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C70" t="n">
+        <v>26415.474890687</v>
+      </c>
+      <c r="D70" t="n">
+        <v>26251.9955843643</v>
+      </c>
+      <c r="E70" t="n">
+        <v>163.479306322664</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>389</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C71" t="n">
+        <v>26941.8699661241</v>
+      </c>
+      <c r="D71" t="n">
+        <v>26782.5848182414</v>
+      </c>
+      <c r="E71" t="n">
+        <v>159.285147882703</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>390</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C72" t="n">
+        <v>9707.33036236359</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9599.88477662021</v>
+      </c>
+      <c r="E72" t="n">
+        <v>107.445585743375</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C73" t="n">
+        <v>11400.9453521847</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11285.0261367164</v>
+      </c>
+      <c r="E73" t="n">
+        <v>115.919215468291</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>392</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C74" t="n">
+        <v>13213.4292067001</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13092.9709343156</v>
+      </c>
+      <c r="E74" t="n">
+        <v>120.458272384531</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6259.7404199435</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6164.96357337429</v>
+      </c>
+      <c r="E75" t="n">
+        <v>94.7768465692079</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>394</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C76" t="n">
+        <v>14067.26720909</v>
+      </c>
+      <c r="D76" t="n">
+        <v>13943.9147170804</v>
+      </c>
+      <c r="E76" t="n">
+        <v>123.352492009511</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7634.9646931138</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7530.90127097644</v>
+      </c>
+      <c r="E77" t="n">
+        <v>104.063422137362</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>396</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C78" t="n">
+        <v>14854.7135054946</v>
+      </c>
+      <c r="D78" t="n">
+        <v>14728.5669802521</v>
+      </c>
+      <c r="E78" t="n">
+        <v>126.146525242575</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>397</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10173.478987496</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10058.9892323188</v>
+      </c>
+      <c r="E79" t="n">
+        <v>114.48975517717</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10754.7215445096</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10642.9387405266</v>
+      </c>
+      <c r="E80" t="n">
+        <v>111.782803983016</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>399</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8483.6035374725</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8387.00204574958</v>
+      </c>
+      <c r="E81" t="n">
+        <v>96.6014917229222</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>400</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11233.4181400852</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11110.5636606208</v>
+      </c>
+      <c r="E82" t="n">
+        <v>122.854479464411</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>401</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10803.0004075396</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10682.5936243363</v>
+      </c>
+      <c r="E83" t="n">
+        <v>120.406783203314</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>402</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C84" t="n">
+        <v>10606.3546275304</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10488.9514681714</v>
+      </c>
+      <c r="E84" t="n">
+        <v>117.403159358972</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>403</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10370.5703258636</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10254.1027178361</v>
+      </c>
+      <c r="E85" t="n">
+        <v>116.467608027464</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>404</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C86" t="n">
+        <v>16640.0064214361</v>
+      </c>
+      <c r="D86" t="n">
+        <v>16506.7677463294</v>
+      </c>
+      <c r="E86" t="n">
+        <v>133.238675106637</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>405</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C87" t="n">
+        <v>17290.7332277993</v>
+      </c>
+      <c r="D87" t="n">
+        <v>17161.6533406801</v>
+      </c>
+      <c r="E87" t="n">
+        <v>129.079887119231</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>406</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C88" t="n">
+        <v>18803.9241520653</v>
+      </c>
+      <c r="D88" t="n">
+        <v>18675.2114971185</v>
+      </c>
+      <c r="E88" t="n">
+        <v>128.712654946747</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>407</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C89" t="n">
+        <v>14558.2095426845</v>
+      </c>
+      <c r="D89" t="n">
+        <v>14426.0532810428</v>
+      </c>
+      <c r="E89" t="n">
+        <v>132.156261641683</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15266.5938274472</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15127.7962637431</v>
+      </c>
+      <c r="E90" t="n">
+        <v>138.797563704164</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>409</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15921.3926985389</v>
+      </c>
+      <c r="D91" t="n">
+        <v>15780.8702194508</v>
+      </c>
+      <c r="E91" t="n">
+        <v>140.522479088115</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>410</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C92" t="n">
+        <v>16274.4886989248</v>
+      </c>
+      <c r="D92" t="n">
+        <v>16133.296622789</v>
+      </c>
+      <c r="E92" t="n">
+        <v>141.192076135834</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>411</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C93" t="n">
+        <v>12792.3905322656</v>
+      </c>
+      <c r="D93" t="n">
+        <v>12671.6253323488</v>
+      </c>
+      <c r="E93" t="n">
+        <v>120.765199916777</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>412</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C94" t="n">
+        <v>13397.6162383931</v>
+      </c>
+      <c r="D94" t="n">
+        <v>13280.2048817273</v>
+      </c>
+      <c r="E94" t="n">
+        <v>117.411356665785</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>413</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C95" t="n">
+        <v>18899.8418057929</v>
+      </c>
+      <c r="D95" t="n">
+        <v>18759.572887522</v>
+      </c>
+      <c r="E95" t="n">
+        <v>140.268918270838</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>414</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C96" t="n">
+        <v>19542.7618169319</v>
+      </c>
+      <c r="D96" t="n">
+        <v>19403.4415271733</v>
+      </c>
+      <c r="E96" t="n">
+        <v>139.320289758631</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>415</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15289.8150831256</v>
+      </c>
+      <c r="D97" t="n">
+        <v>15152.5118803714</v>
+      </c>
+      <c r="E97" t="n">
+        <v>137.303202754227</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>416</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C98" t="n">
+        <v>16150.0328216195</v>
+      </c>
+      <c r="D98" t="n">
+        <v>16019.4168496187</v>
+      </c>
+      <c r="E98" t="n">
+        <v>130.615972000776</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>417</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C99" t="n">
+        <v>21117.2381129969</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20966.4109718297</v>
+      </c>
+      <c r="E99" t="n">
+        <v>150.827141167207</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>418</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C100" t="n">
+        <v>21761.3535161282</v>
+      </c>
+      <c r="D100" t="n">
+        <v>21616.193659587</v>
+      </c>
+      <c r="E100" t="n">
+        <v>145.159856541206</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>419</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C101" t="n">
+        <v>17825.0413742744</v>
+      </c>
+      <c r="D101" t="n">
+        <v>17687.3150529216</v>
+      </c>
+      <c r="E101" t="n">
+        <v>137.72632135278</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>420</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C102" t="n">
+        <v>18755.570383203</v>
+      </c>
+      <c r="D102" t="n">
+        <v>18618.913699664</v>
+      </c>
+      <c r="E102" t="n">
+        <v>136.656683539015</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>421</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C103" t="n">
+        <v>23763.0981900615</v>
+      </c>
+      <c r="D103" t="n">
+        <v>23605.9688908845</v>
+      </c>
+      <c r="E103" t="n">
+        <v>157.12929917709</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>422</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C104" t="n">
+        <v>24174.3353978588</v>
+      </c>
+      <c r="D104" t="n">
+        <v>24022.4249608595</v>
+      </c>
+      <c r="E104" t="n">
+        <v>151.910436999304</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>423</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8471.5838035</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8557.7108</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-86.126996500001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>424</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10170.5283502</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10250.8883</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-80.3599498000003</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>425</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9738.385394</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9840.5842</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-102.198805999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>426</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C108" t="n">
+        <v>13455.3714184</v>
+      </c>
+      <c r="D108" t="n">
+        <v>13550.7239</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-95.3524816000008</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>427</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C109" t="n">
+        <v>20307.7474202</v>
+      </c>
+      <c r="D109" t="n">
+        <v>20417.0222</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-109.274779799998</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>428</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C110" t="n">
+        <v>19119.2396746</v>
+      </c>
+      <c r="D110" t="n">
+        <v>19223.5956</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-104.355925400003</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C111" t="n">
+        <v>19292.3353822</v>
+      </c>
+      <c r="D111" t="n">
+        <v>19403.039</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-110.703617800002</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C112" t="n">
+        <v>21637.7221823</v>
+      </c>
+      <c r="D112" t="n">
+        <v>21749.2866</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-111.564417699999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>431</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C113" t="n">
+        <v>21346.7762245</v>
+      </c>
+      <c r="D113" t="n">
+        <v>21458.2962</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-111.519975499999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>432</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C114" t="n">
+        <v>18842.2187297</v>
+      </c>
+      <c r="D114" t="n">
+        <v>18953.0838</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-110.865070300002</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>433</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C115" t="n">
+        <v>19706.2680926</v>
+      </c>
+      <c r="D115" t="n">
+        <v>19817.2226</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-110.954507400002</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>434</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C116" t="n">
+        <v>21868.3879827</v>
+      </c>
+      <c r="D116" t="n">
+        <v>21980.0881</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-111.700117300003</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>435</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C117" t="n">
+        <v>21840.8775919</v>
+      </c>
+      <c r="D117" t="n">
+        <v>21952.3094</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-111.431808099998</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>436</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C118" t="n">
+        <v>19628.0668742</v>
+      </c>
+      <c r="D118" t="n">
+        <v>19739.331</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-111.2641258</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>437</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C119" t="n">
+        <v>23285.1456435</v>
+      </c>
+      <c r="D119" t="n">
+        <v>23400.2256</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-115.079956500002</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>438</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C120" t="n">
+        <v>23185.786639</v>
+      </c>
+      <c r="D120" t="n">
+        <v>23299.4826</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-113.695960999998</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>439</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11448.0734573</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11552.5943</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-104.520842700002</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>440</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12292.7129533</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12397.9527</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-105.239746700001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>441</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C123" t="n">
+        <v>13163.7513674</v>
+      </c>
+      <c r="D123" t="n">
+        <v>13269.4512</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-105.699832600001</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>442</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8819.0536614</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8914.847</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-95.7933386000004</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>443</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C125" t="n">
+        <v>8647.8941018</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8744.14</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-96.2458981999989</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>444</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C126" t="n">
+        <v>14418.0828607</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14524.7198</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-106.6369393</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>445</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C127" t="n">
+        <v>16073.3790631</v>
+      </c>
+      <c r="D127" t="n">
+        <v>16178.9855</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-105.6064369</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>446</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16048.6526854</v>
+      </c>
+      <c r="D128" t="n">
+        <v>16154.4928</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-105.8401146</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>447</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14524.1697165</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14630.7386</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-106.568883500002</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>448</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C130" t="n">
+        <v>8677.2110139</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8777.6355</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-100.424486100001</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>449</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C131" t="n">
+        <v>15908.1462728</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16015.5145</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-107.368227199999</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>450</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9743.6567227</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9845.4858</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-101.829077300001</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>451</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C133" t="n">
+        <v>16972.1155257</v>
+      </c>
+      <c r="D133" t="n">
+        <v>17080.361</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-108.245474299998</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>452</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15843.4064335</v>
+      </c>
+      <c r="D134" t="n">
+        <v>15950.3873</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-106.9808665</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>453</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C135" t="n">
+        <v>18115.00235</v>
+      </c>
+      <c r="D135" t="n">
+        <v>18224.3469</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-109.344550000002</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>454</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C136" t="n">
+        <v>21201.6884734</v>
+      </c>
+      <c r="D136" t="n">
+        <v>21314.9016</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-113.2131266</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>455</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C137" t="n">
+        <v>22770.6237553</v>
+      </c>
+      <c r="D137" t="n">
+        <v>22889.1968</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-118.573044699999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>456</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C138" t="n">
+        <v>21280.9623256</v>
+      </c>
+      <c r="D138" t="n">
+        <v>21394.5242</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-113.561874399998</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>457</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C139" t="n">
+        <v>22748.8036265</v>
+      </c>
+      <c r="D139" t="n">
+        <v>22866.1885</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-117.384873499999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>458</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C140" t="n">
+        <v>24437.6709583</v>
+      </c>
+      <c r="D140" t="n">
+        <v>24559.6325</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-121.961541699999</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>459</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C141" t="n">
+        <v>24342.1353255</v>
+      </c>
+      <c r="D141" t="n">
+        <v>24464.3352</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-122.199874500002</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>460</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12206.9979812</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12311.155</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-104.157018800001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>461</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C143" t="n">
+        <v>13152.1918465</v>
+      </c>
+      <c r="D143" t="n">
+        <v>13256.919</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-104.7271535</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>462</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C144" t="n">
+        <v>8581.7604244</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8682.2827</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-100.5222756</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>463</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14201.6917464</v>
+      </c>
+      <c r="D145" t="n">
+        <v>14307.3579</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-105.666153600001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>464</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9329.3236118</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9430.3445</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-101.020888199999</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>465</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15039.2754905</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15145.582</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-106.3065095</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>466</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12044.7584234</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12148.0314</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-103.272976599999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>467</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C149" t="n">
+        <v>13243.7883525</v>
+      </c>
+      <c r="D149" t="n">
+        <v>13347.3524</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-103.5640475</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>468</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C150" t="n">
+        <v>16127.6488987</v>
+      </c>
+      <c r="D150" t="n">
+        <v>16235.0332</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-107.384301299999</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>469</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C151" t="n">
+        <v>16960.4893962</v>
+      </c>
+      <c r="D151" t="n">
+        <v>17067.9102</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-107.4208038</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>470</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15145.2368275</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15251.5393</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-106.302472500001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>471</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C153" t="n">
+        <v>17197.4375104</v>
+      </c>
+      <c r="D153" t="n">
+        <v>17305.8949</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-108.4573896</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>472</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C154" t="n">
+        <v>17652.1272436</v>
+      </c>
+      <c r="D154" t="n">
+        <v>17761.1099</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-108.9826564</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>473</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C155" t="n">
+        <v>18335.3877143</v>
+      </c>
+      <c r="D155" t="n">
+        <v>18445.0161</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-109.628385700002</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>474</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C156" t="n">
+        <v>19783.2830935</v>
+      </c>
+      <c r="D156" t="n">
+        <v>19894.9009</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-111.617806500002</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>475</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C157" t="n">
+        <v>19792.7541985</v>
+      </c>
+      <c r="D157" t="n">
+        <v>19904.2746</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-111.520401500002</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>476</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9838.0924863</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9883.0761</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-44.9836137000002</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>477</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9510.7417748</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9596.0175</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-85.275725200001</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>478</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10324.745737</v>
+      </c>
+      <c r="D160" t="n">
+        <v>10425.6392</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-100.893463</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C161" t="n">
+        <v>14999.3152738</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15102.6709</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-103.3556262</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>480</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C162" t="n">
+        <v>17835.4708417</v>
+      </c>
+      <c r="D162" t="n">
+        <v>17942.3352</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-106.864358300001</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>481</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C163" t="n">
+        <v>10935.5940257</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11034.7242</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-99.1301743000004</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>482</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C164" t="n">
+        <v>14690.092697</v>
+      </c>
+      <c r="D164" t="n">
+        <v>14791.777</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-101.684303</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>483</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C165" t="n">
+        <v>20727.1355423</v>
+      </c>
+      <c r="D165" t="n">
+        <v>20841.4967</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-114.361157700001</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>484</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7120.0444668</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7212.4873</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-92.4428331999989</v>
       </c>
     </row>
   </sheetData>
